--- a/A1/data.xlsx
+++ b/A1/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\inohaan\projects\experiment-3s\A1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2F00C5-36CD-40BE-BD5C-86DD244243DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397B81A0-C323-438F-B08B-8021A9834D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="7" xr2:uid="{CC1EBD1F-D9AF-4E74-890C-C2598D192F15}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="8" xr2:uid="{CC1EBD1F-D9AF-4E74-890C-C2598D192F15}"/>
   </bookViews>
   <sheets>
     <sheet name="(1)" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="(2)-1.60" sheetId="6" r:id="rId6"/>
     <sheet name="(2)-2.00" sheetId="7" r:id="rId7"/>
     <sheet name="(2)-2.40" sheetId="8" r:id="rId8"/>
+    <sheet name="(3)" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="11">
   <si>
     <t>V_m</t>
     <phoneticPr fontId="1"/>
@@ -78,6 +79,14 @@
   </si>
   <si>
     <t>μA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V_GS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R=20kΩ, V0=19.98V</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -124,8 +133,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1616,7 +1628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8733ACA2-69D4-4509-B0FC-98505C8F9C54}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -1690,4 +1702,209 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1232B0E9-9D1D-4BB5-941B-084F653BC8EB}">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.55900000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>0.5</v>
+      </c>
+      <c r="B5">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>17.37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>1.5</v>
+      </c>
+      <c r="B7">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>2.4</v>
+      </c>
+      <c r="B9">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>0.1</v>
+      </c>
+      <c r="B10">
+        <v>0.63800000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>0.2</v>
+      </c>
+      <c r="B11">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>0.3</v>
+      </c>
+      <c r="B12">
+        <v>0.95299999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>0.4</v>
+      </c>
+      <c r="B13">
+        <v>2.1659999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>0.6</v>
+      </c>
+      <c r="B14">
+        <v>8.2159999999999993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>0.7</v>
+      </c>
+      <c r="B15">
+        <v>11.07</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>0.8</v>
+      </c>
+      <c r="B16">
+        <v>13.63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>0.9</v>
+      </c>
+      <c r="B17">
+        <v>15.73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B18">
+        <v>18.73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>1.2</v>
+      </c>
+      <c r="B19">
+        <v>19.53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>1.3</v>
+      </c>
+      <c r="B20">
+        <v>19.850000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <v>1.4</v>
+      </c>
+      <c r="B21">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
+        <v>0.15</v>
+      </c>
+      <c r="B22">
+        <v>0.68600000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23">
+        <v>0.45</v>
+      </c>
+      <c r="B23">
+        <v>3.6749999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B24">
+        <v>6.79</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/A1/data.xlsx
+++ b/A1/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\inohaan\projects\experiment-3s\A1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397B81A0-C323-438F-B08B-8021A9834D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED4DBD0-F862-491B-90E7-FBFE3ED04015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="8" xr2:uid="{CC1EBD1F-D9AF-4E74-890C-C2598D192F15}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="10" xr2:uid="{CC1EBD1F-D9AF-4E74-890C-C2598D192F15}"/>
   </bookViews>
   <sheets>
     <sheet name="(1)" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,8 @@
     <sheet name="(2)-2.00" sheetId="7" r:id="rId7"/>
     <sheet name="(2)-2.40" sheetId="8" r:id="rId8"/>
     <sheet name="(3)" sheetId="9" r:id="rId9"/>
+    <sheet name="(4)(d)" sheetId="10" r:id="rId10"/>
+    <sheet name="(4)(e)" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="17">
   <si>
     <t>V_m</t>
     <phoneticPr fontId="1"/>
@@ -87,6 +89,30 @@
   </si>
   <si>
     <t>R=20kΩ, V0=19.98V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v_i</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v_o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hz</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -133,11 +159,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -840,6 +863,113 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B948F1C-37CF-438B-A604-B98FD6534051}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DCEB73-F496-4548-A78E-6122D1B7AA10}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1B60A9-5D4E-48C6-9908-2B9CBF2A5C43}">
   <dimension ref="A1:B17"/>
@@ -1708,7 +1838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1232B0E9-9D1D-4BB5-941B-084F653BC8EB}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -1739,7 +1869,7 @@
       <c r="A4">
         <v>0</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>0.55900000000000005</v>
       </c>
     </row>

--- a/A1/data.xlsx
+++ b/A1/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\inohaan\projects\experiment-3s\A1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED4DBD0-F862-491B-90E7-FBFE3ED04015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFD4913-C2B9-4833-A731-2EF3367709BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="10" xr2:uid="{CC1EBD1F-D9AF-4E74-890C-C2598D192F15}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="9" xr2:uid="{CC1EBD1F-D9AF-4E74-890C-C2598D192F15}"/>
   </bookViews>
   <sheets>
     <sheet name="(1)" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="17">
   <si>
     <t>V_m</t>
     <phoneticPr fontId="1"/>
@@ -104,15 +104,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>s</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>f</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Hz</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ms</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -159,8 +159,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -865,45 +868,119 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B948F1C-37CF-438B-A604-B98FD6534051}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1">
+        <v>0.372</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="B4">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="B5">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1">
+        <v>1.21</v>
+      </c>
+      <c r="B6">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1">
+        <v>1.41</v>
+      </c>
+      <c r="B7">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B8">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1">
+        <v>5.04</v>
+      </c>
+      <c r="B9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1">
+        <v>6.96</v>
+      </c>
+      <c r="B11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1">
+        <v>7.96</v>
+      </c>
+      <c r="B12">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="B13">
+        <v>7.68</v>
       </c>
     </row>
   </sheetData>
@@ -914,17 +991,21 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DCEB73-F496-4548-A78E-6122D1B7AA10}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
@@ -938,7 +1019,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -947,20 +1028,314 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>1.52</v>
       </c>
       <c r="D3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>2.46</v>
+      </c>
+      <c r="C4">
+        <v>2.48</v>
+      </c>
+      <c r="D4">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>2.5</v>
+      </c>
+      <c r="C5">
+        <v>3.92</v>
+      </c>
+      <c r="D5">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>70</v>
+      </c>
+      <c r="B6">
+        <v>2.5</v>
+      </c>
+      <c r="C6">
+        <v>4.84</v>
+      </c>
+      <c r="D6">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>100</v>
+      </c>
+      <c r="B7">
+        <v>2.4</v>
+      </c>
+      <c r="C7">
+        <v>5.52</v>
+      </c>
+      <c r="D7">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>120</v>
+      </c>
+      <c r="B8">
+        <v>2.46</v>
+      </c>
+      <c r="C8">
+        <v>5.8</v>
+      </c>
+      <c r="D8">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>150</v>
+      </c>
+      <c r="B9">
+        <v>2.4</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>-3.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>200</v>
+      </c>
+      <c r="B10">
+        <v>2.46</v>
+      </c>
+      <c r="C10">
+        <v>6.2</v>
+      </c>
+      <c r="D10">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>250</v>
+      </c>
+      <c r="B11">
+        <v>2.46</v>
+      </c>
+      <c r="C11">
+        <v>6.24</v>
+      </c>
+      <c r="D11">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>300</v>
+      </c>
+      <c r="B12">
+        <v>2.48</v>
+      </c>
+      <c r="C12">
+        <v>6.4</v>
+      </c>
+      <c r="D12">
+        <v>-1.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>400</v>
+      </c>
+      <c r="B13">
+        <v>2.46</v>
+      </c>
+      <c r="C13">
+        <v>6.4</v>
+      </c>
+      <c r="D13">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>500</v>
+      </c>
+      <c r="B14">
+        <v>2.48</v>
+      </c>
+      <c r="C14">
+        <v>6.4</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>700</v>
+      </c>
+      <c r="B15">
+        <v>2.48</v>
+      </c>
+      <c r="C15">
+        <v>6.4</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-0.745</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>1000</v>
+      </c>
+      <c r="B16">
+        <v>2.46</v>
+      </c>
+      <c r="C16">
+        <v>6.4</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.48399999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>2000</v>
+      </c>
+      <c r="B17">
+        <v>2.44</v>
+      </c>
+      <c r="C17">
+        <v>6.56</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.248</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="1">
+        <v>5000</v>
+      </c>
+      <c r="B18">
+        <v>2.48</v>
+      </c>
+      <c r="C18">
+        <v>6.4</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="1">
+        <v>10000</v>
+      </c>
+      <c r="B19">
+        <v>2.42</v>
+      </c>
+      <c r="C19">
+        <v>6.4</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5.28E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="1">
+        <v>20000</v>
+      </c>
+      <c r="B20">
+        <v>2.42</v>
+      </c>
+      <c r="C20">
+        <v>5.92</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="1">
+        <v>50000</v>
+      </c>
+      <c r="B21">
+        <v>2.42</v>
+      </c>
+      <c r="C21">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="D21" s="1">
+        <v>-7.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="1">
+        <v>100000</v>
+      </c>
+      <c r="B22">
+        <v>2.42</v>
+      </c>
+      <c r="C22">
+        <v>2.88</v>
+      </c>
+      <c r="D22" s="1">
+        <v>6.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="1">
+        <v>200000</v>
+      </c>
+      <c r="B23">
+        <v>2.42</v>
+      </c>
+      <c r="C23">
+        <v>1.68</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="1">
+        <v>500000</v>
+      </c>
+      <c r="B24">
+        <v>2.4</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D24" s="1">
         <v>0</v>
       </c>
     </row>

--- a/A1/data.xlsx
+++ b/A1/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\inohaan\projects\experiment-3s\A1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFD4913-C2B9-4833-A731-2EF3367709BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11AA860-6E24-4E44-B099-94ACF107B898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="9" xr2:uid="{CC1EBD1F-D9AF-4E74-890C-C2598D192F15}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CC1EBD1F-D9AF-4E74-890C-C2598D192F15}"/>
   </bookViews>
   <sheets>
     <sheet name="(1)" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="23">
   <si>
     <t>V_m</t>
     <phoneticPr fontId="1"/>
@@ -56,19 +56,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>R_V</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>V</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>mA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ω</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -113,6 +105,35 @@
   </si>
   <si>
     <t>ms</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10m</t>
+  </si>
+  <si>
+    <t>10m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>type_I</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1000u</t>
+  </si>
+  <si>
+    <t>1000u</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100u</t>
+  </si>
+  <si>
+    <t>100u</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30u</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -502,13 +523,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B94EA44-E368-4E00-89E5-9B705C5DF694}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -516,348 +537,345 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>9.64</v>
       </c>
       <c r="B3">
         <v>1.01</v>
       </c>
-      <c r="C3">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>9</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>8</v>
       </c>
       <c r="B5">
         <v>0.96</v>
       </c>
-      <c r="C5">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>7</v>
       </c>
       <c r="B6">
         <v>0.93</v>
       </c>
-      <c r="C6">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>0.9</v>
       </c>
-      <c r="C7">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8">
         <v>0.86</v>
       </c>
-      <c r="C8">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>3.9</v>
       </c>
       <c r="B9">
         <v>0.84</v>
       </c>
-      <c r="C9">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>3</v>
       </c>
       <c r="B10">
         <v>0.8</v>
       </c>
-      <c r="C10">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1.98</v>
       </c>
       <c r="B11">
         <v>0.76</v>
       </c>
-      <c r="C11">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>0.98</v>
       </c>
       <c r="B12">
         <v>0.72499999999999998</v>
       </c>
-      <c r="C12">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>0.9</v>
       </c>
       <c r="B13">
         <v>1.49</v>
       </c>
-      <c r="C13">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>0.8</v>
       </c>
       <c r="B14">
         <v>1.39</v>
       </c>
-      <c r="C14">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>0.7</v>
       </c>
       <c r="B15">
         <v>1.3</v>
       </c>
-      <c r="C15">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>0.6</v>
       </c>
       <c r="B16">
         <v>1.2050000000000001</v>
       </c>
-      <c r="C16">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>0.5</v>
       </c>
       <c r="B17">
         <v>1.1100000000000001</v>
       </c>
-      <c r="C17">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>0.39800000000000002</v>
       </c>
       <c r="B18">
         <v>1.0149999999999999</v>
       </c>
-      <c r="C18">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>0.29799999999999999</v>
       </c>
       <c r="B19">
         <v>0.92500000000000004</v>
       </c>
-      <c r="C19">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>0.2</v>
       </c>
       <c r="B20">
         <v>0.82499999999999996</v>
       </c>
-      <c r="C20">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>0.1</v>
       </c>
       <c r="B21">
         <v>0.71</v>
       </c>
-      <c r="C21">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>0.09</v>
       </c>
       <c r="B22">
         <v>0.7</v>
       </c>
-      <c r="C22">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>0.09</v>
       </c>
       <c r="B23">
         <v>1.21</v>
       </c>
-      <c r="C23">
-        <v>6750</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>0.08</v>
       </c>
       <c r="B24">
         <v>1.1499999999999999</v>
       </c>
-      <c r="C24">
-        <v>6750</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>0.06</v>
       </c>
       <c r="B25">
         <v>1.01</v>
       </c>
-      <c r="C25">
-        <v>6750</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>0.04</v>
       </c>
       <c r="B26">
         <v>0.87</v>
       </c>
-      <c r="C26">
-        <v>6750</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>0.02</v>
       </c>
       <c r="B27">
         <v>0.72</v>
       </c>
-      <c r="C27">
-        <v>6750</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>0.01</v>
       </c>
       <c r="B28">
         <v>0.64</v>
       </c>
-      <c r="C28">
-        <v>6750</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29">
-        <v>5</v>
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" s="1">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="B29">
         <v>0.55500000000000005</v>
       </c>
-      <c r="C29">
-        <v>4690</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30">
-        <v>1.6</v>
+      <c r="C29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" s="1">
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="B30">
         <v>0.5</v>
       </c>
-      <c r="C30">
-        <v>4690</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31">
-        <v>0.2</v>
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" s="1">
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="B31">
         <v>0.3</v>
       </c>
-      <c r="C31">
-        <v>4690</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>0</v>
       </c>
       <c r="B32">
         <v>0.1</v>
       </c>
-      <c r="C32">
-        <v>4690</v>
+      <c r="C32" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -870,32 +888,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B948F1C-37CF-438B-A604-B98FD6534051}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>0.372</v>
       </c>
@@ -903,7 +921,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>0.57999999999999996</v>
       </c>
@@ -911,7 +929,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>0.89600000000000002</v>
       </c>
@@ -919,7 +937,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>1.21</v>
       </c>
@@ -927,7 +945,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>1.41</v>
       </c>
@@ -935,7 +953,7 @@
         <v>3.68</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>4.4000000000000004</v>
       </c>
@@ -943,7 +961,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>5.04</v>
       </c>
@@ -951,7 +969,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -959,7 +977,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>6.96</v>
       </c>
@@ -967,7 +985,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>7.96</v>
       </c>
@@ -975,7 +993,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>2.88</v>
       </c>
@@ -997,41 +1015,41 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>20</v>
       </c>
@@ -1045,7 +1063,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>30</v>
       </c>
@@ -1059,7 +1077,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>50</v>
       </c>
@@ -1073,7 +1091,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>70</v>
       </c>
@@ -1087,7 +1105,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>100</v>
       </c>
@@ -1101,7 +1119,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>120</v>
       </c>
@@ -1115,7 +1133,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>150</v>
       </c>
@@ -1129,7 +1147,7 @@
         <v>-3.8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>200</v>
       </c>
@@ -1143,7 +1161,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>250</v>
       </c>
@@ -1157,7 +1175,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>300</v>
       </c>
@@ -1171,7 +1189,7 @@
         <v>-1.8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>400</v>
       </c>
@@ -1185,7 +1203,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>500</v>
       </c>
@@ -1199,7 +1217,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>700</v>
       </c>
@@ -1213,7 +1231,7 @@
         <v>-0.745</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>1000</v>
       </c>
@@ -1227,7 +1245,7 @@
         <v>0.48399999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>2000</v>
       </c>
@@ -1241,7 +1259,7 @@
         <v>0.248</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>5000</v>
       </c>
@@ -1255,7 +1273,7 @@
         <v>0.10199999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>10000</v>
       </c>
@@ -1269,7 +1287,7 @@
         <v>5.28E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>20000</v>
       </c>
@@ -1283,7 +1301,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>50000</v>
       </c>
@@ -1297,7 +1315,7 @@
         <v>-7.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>100000</v>
       </c>
@@ -1311,7 +1329,7 @@
         <v>6.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>200000</v>
       </c>
@@ -1325,7 +1343,7 @@
         <v>3.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>500000</v>
       </c>
@@ -1353,25 +1371,25 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>-1E-3</v>
       </c>
@@ -1379,7 +1397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>0.5</v>
       </c>
@@ -1387,7 +1405,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>0.999</v>
       </c>
@@ -1395,7 +1413,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1.5069999999999999</v>
       </c>
@@ -1403,7 +1421,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1.99</v>
       </c>
@@ -1411,7 +1429,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>2.5099999999999998</v>
       </c>
@@ -1419,7 +1437,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>3.01</v>
       </c>
@@ -1427,7 +1445,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>5</v>
       </c>
@@ -1435,7 +1453,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10.029999999999999</v>
       </c>
@@ -1443,7 +1461,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>15.01</v>
       </c>
@@ -1451,7 +1469,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>20.03</v>
       </c>
@@ -1459,7 +1477,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>0.10970000000000001</v>
       </c>
@@ -1467,7 +1485,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>0.223</v>
       </c>
@@ -1475,7 +1493,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>0.35</v>
       </c>
@@ -1483,7 +1501,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>0.76900000000000002</v>
       </c>
@@ -1505,25 +1523,25 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2.0000000000000001E-4</v>
       </c>
@@ -1531,7 +1549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>0.504</v>
       </c>
@@ -1539,7 +1557,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1.0089999999999999</v>
       </c>
@@ -1547,7 +1565,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1.502</v>
       </c>
@@ -1555,7 +1573,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>2.02</v>
       </c>
@@ -1563,7 +1581,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>5.0599999999999996</v>
       </c>
@@ -1571,7 +1589,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>10.01</v>
       </c>
@@ -1579,7 +1597,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>15.03</v>
       </c>
@@ -1587,7 +1605,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>19.98</v>
       </c>
@@ -1595,7 +1613,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>0.114</v>
       </c>
@@ -1603,7 +1621,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>0.21299999999999999</v>
       </c>
@@ -1611,7 +1629,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>0.76100000000000001</v>
       </c>
@@ -1619,7 +1637,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>0.34200000000000003</v>
       </c>
@@ -1627,7 +1645,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>3.05</v>
       </c>
@@ -1635,7 +1653,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>7.49</v>
       </c>
@@ -1657,25 +1675,25 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>6.0000000000000001E-3</v>
       </c>
@@ -1683,7 +1701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>0.51100000000000001</v>
       </c>
@@ -1691,7 +1709,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1699,7 +1717,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5.01</v>
       </c>
@@ -1707,7 +1725,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>10.050000000000001</v>
       </c>
@@ -1715,7 +1733,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>15.05</v>
       </c>
@@ -1723,7 +1741,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>20.010000000000002</v>
       </c>
@@ -1731,7 +1749,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0.47</v>
       </c>
@@ -1739,7 +1757,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>0.996</v>
       </c>
@@ -1747,7 +1765,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>0.105</v>
       </c>
@@ -1755,7 +1773,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>0.20699999999999999</v>
       </c>
@@ -1763,7 +1781,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>0.28799999999999998</v>
       </c>
@@ -1771,7 +1789,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>0.71499999999999997</v>
       </c>
@@ -1793,25 +1811,25 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>4.0000000000000001E-3</v>
       </c>
@@ -1819,7 +1837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>0.49299999999999999</v>
       </c>
@@ -1827,7 +1845,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1.0009999999999999</v>
       </c>
@@ -1835,7 +1853,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1.492</v>
       </c>
@@ -1843,7 +1861,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5.04</v>
       </c>
@@ -1851,7 +1869,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>10.08</v>
       </c>
@@ -1859,7 +1877,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>15.01</v>
       </c>
@@ -1867,7 +1885,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>20.149999999999999</v>
       </c>
@@ -1875,7 +1893,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>0.10100000000000001</v>
       </c>
@@ -1883,7 +1901,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>0.20599999999999999</v>
       </c>
@@ -1891,7 +1909,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>5.7000000000000002E-2</v>
       </c>
@@ -1899,7 +1917,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>3.1219999999999999</v>
       </c>
@@ -1907,7 +1925,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>7.39</v>
       </c>
@@ -1915,7 +1933,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>12.42</v>
       </c>
@@ -1923,7 +1941,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>17.61</v>
       </c>
@@ -1945,25 +1963,25 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>7.0000000000000001E-3</v>
       </c>
@@ -1971,7 +1989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>0.51900000000000002</v>
       </c>
@@ -1979,7 +1997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1.0569999999999999</v>
       </c>
@@ -1987,7 +2005,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>3.05</v>
       </c>
@@ -1995,7 +2013,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>4.0010000000000003</v>
       </c>
@@ -2003,7 +2021,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>5.04</v>
       </c>
@@ -2011,7 +2029,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>5.98</v>
       </c>
@@ -2019,7 +2037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>10.06</v>
       </c>
@@ -2027,7 +2045,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>15.01</v>
       </c>
@@ -2035,7 +2053,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>19.989999999999998</v>
       </c>
@@ -2057,25 +2075,25 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>8.9999999999999993E-3</v>
       </c>
@@ -2083,7 +2101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1.056</v>
       </c>
@@ -2091,7 +2109,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>5.04</v>
       </c>
@@ -2099,7 +2117,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>10.06</v>
       </c>
@@ -2107,7 +2125,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>15.04</v>
       </c>
@@ -2115,7 +2133,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>20</v>
       </c>
@@ -2137,25 +2155,25 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>7.0000000000000001E-3</v>
       </c>
@@ -2163,7 +2181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1.089</v>
       </c>
@@ -2171,7 +2189,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>5.04</v>
       </c>
@@ -2179,7 +2197,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>10.06</v>
       </c>
@@ -2187,7 +2205,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>15.1</v>
       </c>
@@ -2195,7 +2213,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>20.04</v>
       </c>
@@ -2217,30 +2235,30 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>0</v>
       </c>
@@ -2248,7 +2266,7 @@
         <v>0.55900000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>0.5</v>
       </c>
@@ -2256,7 +2274,7 @@
         <v>5.08</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2264,7 +2282,7 @@
         <v>17.37</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1.5</v>
       </c>
@@ -2272,7 +2290,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>2</v>
       </c>
@@ -2280,7 +2298,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>2.4</v>
       </c>
@@ -2288,7 +2306,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0.1</v>
       </c>
@@ -2296,7 +2314,7 @@
         <v>0.63800000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>0.2</v>
       </c>
@@ -2304,7 +2322,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>0.3</v>
       </c>
@@ -2312,7 +2330,7 @@
         <v>0.95299999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>0.4</v>
       </c>
@@ -2320,7 +2338,7 @@
         <v>2.1659999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>0.6</v>
       </c>
@@ -2328,7 +2346,7 @@
         <v>8.2159999999999993</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>0.7</v>
       </c>
@@ -2336,7 +2354,7 @@
         <v>11.07</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>0.8</v>
       </c>
@@ -2344,7 +2362,7 @@
         <v>13.63</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>0.9</v>
       </c>
@@ -2352,7 +2370,7 @@
         <v>15.73</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>1.1000000000000001</v>
       </c>
@@ -2360,7 +2378,7 @@
         <v>18.73</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>1.2</v>
       </c>
@@ -2368,7 +2386,7 @@
         <v>19.53</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>1.3</v>
       </c>
@@ -2376,7 +2394,7 @@
         <v>19.850000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>1.4</v>
       </c>
@@ -2384,7 +2402,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>0.15</v>
       </c>
@@ -2392,7 +2410,7 @@
         <v>0.68600000000000005</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>0.45</v>
       </c>
@@ -2400,7 +2418,7 @@
         <v>3.6749999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>0.55000000000000004</v>
       </c>
